--- a/src/test/data/validator_bean.xlsx
+++ b/src/test/data/validator_bean.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F713D9B3-54BD-440A-8E89-BFF1FE536A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="31095" yWindow="420" windowWidth="24135" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="単純なBean" sheetId="1" r:id="rId1"/>
     <sheet name="リストのBean" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="メッセージ属性を変更" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>「SheetBeanValidator」による入力値検証用のテストデータ</t>
     <rPh sb="23" eb="26">
@@ -220,11 +222,19 @@
     <t>saburo.hayashi@example.com</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>コード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abc01234</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -331,7 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -340,8 +349,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -353,14 +363,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -398,7 +411,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -470,7 +483,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -643,10 +656,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -682,7 +695,7 @@
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>30</v>
       </c>
     </row>
@@ -690,10 +703,10 @@
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="12"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
@@ -709,19 +722,17 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -750,7 +761,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -764,35 +775,35 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>1</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>3</v>
       </c>
       <c r="B11" s="2"/>
@@ -800,32 +811,59 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C10" r:id="rId2"/>
-    <hyperlink ref="C12" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E4D135-08B9-485C-A384-26F3E1381EBC}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
